--- a/public/template_report/purchase_template_2.xlsx
+++ b/public/template_report/purchase_template_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="5" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>VAT 11%</t>
   </si>
   <si>
-    <t>VAT 12%</t>
+    <t>VAT 2%</t>
   </si>
   <si>
     <t>Remark :</t>
@@ -124,13 +124,13 @@
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="179" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="[$-13809]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -245,9 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,8 +268,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,111 +367,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1" tint="0.249946592608417"/>
       <name val="Calibri"/>
@@ -388,11 +374,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -417,31 +417,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,145 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,41 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -685,22 +650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,184 +678,234 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -913,94 +913,94 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="60" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="59" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1024,58 +1024,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Currency [0] 2" xfId="1"/>
-    <cellStyle name="Heading 1 2" xfId="2"/>
-    <cellStyle name="Heading 2 2" xfId="3"/>
+    <cellStyle name="Phone" xfId="1"/>
+    <cellStyle name="Note 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Name" xfId="4"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Note 2" xfId="6"/>
-    <cellStyle name="Phone" xfId="7"/>
+    <cellStyle name="Heading 2 2" xfId="5"/>
+    <cellStyle name="Heading 1 2" xfId="6"/>
+    <cellStyle name="Currency [0] 2" xfId="7"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="10" builtinId="48"/>
@@ -1127,8 +1127,8 @@
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="60% - Accent3" xfId="57" builtinId="40"/>
     <cellStyle name="Percent" xfId="58" builtinId="5"/>
-    <cellStyle name="Explanatory Text 2" xfId="59"/>
-    <cellStyle name="Heading 3 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="59"/>
+    <cellStyle name="Explanatory Text 2" xfId="60"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="14"/>
